--- a/Frame format.xlsx
+++ b/Frame format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Frame format</t>
   </si>
@@ -83,12 +83,15 @@
   </si>
   <si>
     <t>ACK update balance</t>
+  </si>
+  <si>
+    <t>Result (int)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,12 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -432,6 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +537,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,7 +785,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,30 +796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -795,40 +832,40 @@
       <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -846,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9"/>
     </row>

--- a/Frame format.xlsx
+++ b/Frame format.xlsx
@@ -785,7 +785,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
